--- a/biology/Mycologie/Xerocomellus_redeuilhii/Xerocomellus_redeuilhii.xlsx
+++ b/biology/Mycologie/Xerocomellus_redeuilhii/Xerocomellus_redeuilhii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet rubicond, Bolet de Redeuilh
 Xerocomellus redeuilhii, le Bolet rubicond, est une espèce de champignon (Fungi) basidiomycète  du genre Xerocomellus dans la famille des Boletaceae. Comestible moyen, il est caractérisé par son chapeau rougeâtre et son pied rouge betterave dans sa partie inférieure, à l'extérieur comme à la coupe.
@@ -512,13 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomellus redeuilhii A.F.S.Taylor, U.Eberh., Simonini, Gelardi &amp; Vizzini[1].
-Phylogénie
-Xerocomellus redeuilhii a longtemps été nommé Xerocomus dryophilus par les mycologues européens, mais ce dernier, décrit des États-Unis, ne semble pas présent en Europe[2]. Xerocomellus redeuilhii est donc l'espèce Européenne, tandis que Xerocomellus dryophilus (le Bolet californien ou Bolet du chêne[3]) est une espèce Américaine.
-Étymologie
-L'espèce a été nommée en hommage au mycologue Guy Redeuilh (1937 – 2004).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomellus redeuilhii A.F.S.Taylor, U.Eberh., Simonini, Gelardi &amp; Vizzini.
 </t>
         </is>
       </c>
@@ -544,18 +554,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xerocomellus redeuilhii a longtemps été nommé Xerocomus dryophilus par les mycologues européens, mais ce dernier, décrit des États-Unis, ne semble pas présent en Europe. Xerocomellus redeuilhii est donc l'espèce Européenne, tandis que Xerocomellus dryophilus (le Bolet californien ou Bolet du chêne) est une espèce Américaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Xerocomellus_redeuilhii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_redeuilhii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été nommée en hommage au mycologue Guy Redeuilh (1937 – 2004).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xerocomellus_redeuilhii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_redeuilhii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Xerocomellus redeuilhii, le Bolet de Redeuilh, sont les suivantes :
-Son chapeau mesure de 3 à 10 cm, de couleur brun-rouge, rose-rouge à rouge, pâlissant parfois à brunâtre pâle et se craquelant un peu[3].
-L'hyménophore présente des tubes d'abord jaune olivâtre, plus au moins bleuissants. Les pores sont bleuissants, concolores aux tubes[2].
-Son stipe mesure 3 à 8 cm x 1 à 2 cm, de couleur jaune de chrome au sommet, de plus en plus rouge betterave en allant vers la base[2].
-La chair est jaune, rouge betterave dans la base du pied, légèrement bleuissante. Sa saveur est douce et son odeur est faible[2].
-Caractéristiques microscopiques
-Ses spores mesurent 11 à 16 μm x 5 - 7 μm (Q = 2,1 à 2,4 μm), elles sont allongées-fusoïdes, lisses[2].
+Son chapeau mesure de 3 à 10 cm, de couleur brun-rouge, rose-rouge à rouge, pâlissant parfois à brunâtre pâle et se craquelant un peu.
+L'hyménophore présente des tubes d'abord jaune olivâtre, plus au moins bleuissants. Les pores sont bleuissants, concolores aux tubes.
+Son stipe mesure 3 à 8 cm x 1 à 2 cm, de couleur jaune de chrome au sommet, de plus en plus rouge betterave en allant vers la base.
+La chair est jaune, rouge betterave dans la base du pied, légèrement bleuissante. Sa saveur est douce et son odeur est faible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xerocomellus_redeuilhii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_redeuilhii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 11 à 16 μm x 5 - 7 μm (Q = 2,1 à 2,4 μm), elles sont allongées-fusoïdes, lisses.
 </t>
         </is>
       </c>
